--- a/dea.xlsx
+++ b/dea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.519</v>
+        <v>1.238</v>
       </c>
       <c r="D2" t="n">
-        <v>2.314</v>
+        <v>4.22</v>
       </c>
       <c r="E2" t="n">
-        <v>5.57</v>
+        <v>4.696</v>
       </c>
       <c r="F2" t="n">
-        <v>0.068</v>
+        <v>0.063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="3">
@@ -504,26 +504,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CMIG3.SA</t>
+          <t>CBEE3.SA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.671</v>
+        <v>0.381</v>
       </c>
       <c r="D3" t="n">
-        <v>2.604</v>
+        <v>0.832</v>
       </c>
       <c r="E3" t="n">
-        <v>3.278</v>
+        <v>0.504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.028</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.273</v>
+        <v>0.014</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -532,26 +532,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CMIG4.SA</t>
+          <t>CEBR3.SA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.729</v>
+        <v>1.843</v>
       </c>
       <c r="D4" t="n">
-        <v>2.372</v>
+        <v>2.232</v>
       </c>
       <c r="E4" t="n">
-        <v>3.433</v>
+        <v>2.789</v>
       </c>
       <c r="F4" t="n">
         <v>0.029</v>
       </c>
       <c r="G4" t="n">
-        <v>0.299</v>
+        <v>0.024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="5">
@@ -560,23 +560,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRPL3.SA</t>
+          <t>CEBR5.SA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.843</v>
+        <v>12.3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.376</v>
+        <v>10.696</v>
       </c>
       <c r="E5" t="n">
-        <v>3.54</v>
+        <v>12.3</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0.047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.079</v>
+        <v>-0.002</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -588,26 +588,1118 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>CEBR6.SA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CEEB3.SA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1.794</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.511</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CEEB5.SA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CEPE5.SA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.692</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.129</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CEPE6.SA</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CMIG3.SA</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CMIG4.SA</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.935</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.623</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>COCE5.SA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3.531</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.531</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CPFE3.SA</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2.833</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2.051</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CPLE3.SA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4.152</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.183</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.524</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CPLE5.SA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CPLE6.SA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CSRN3.SA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3.699</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.587</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CSRN5.SA</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>4.642</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.923</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CSRN6.SA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4.558</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>EGIE3.SA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5.683</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.102</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EKTR3.SA</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>EKTR4.SA</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.719</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.739</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.979</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ELET3.SA</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10.804</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.597</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ELET6.SA</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.357</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>EMAE4.SA</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>4.147</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8.097</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.771</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ENBR3.SA</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3.385</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ENEV3.SA</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.339</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ENGI11.SA</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>8.471</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.608</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ENGI3.SA</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9.891</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3.394</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.128</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.834</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ENGI4.SA</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>7.973</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.755</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5.851</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ENMT3.SA</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5.046</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5.481</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ENMT4.SA</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5.875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4.695</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13.581</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>EQPA3.SA</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6.643</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>EQPA5.SA</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9.016</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.005</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.466</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>EQTL3.SA</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>8.087999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2.324</v>
+      </c>
+      <c r="E36" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GEPA3.SA</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.008</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GEPA4.SA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.791</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.339</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.286</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.496</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LIGT3.SA</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LIPR3.SA</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>REDE3.SA</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4.534</v>
+      </c>
+      <c r="E41" t="n">
+        <v>11.967</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TAEE11.SA</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5.906</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2.739</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TAEE3.SA</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>TRPL3.SA</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>TRPL4.SA</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>5.301</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.828</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.016</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
+      <c r="C45" t="n">
+        <v>3.453</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="E45" t="n">
+        <v>4.158</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.612</v>
       </c>
     </row>
   </sheetData>

--- a/dea.xlsx
+++ b/dea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,23 +476,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>REDE3.SA</t>
+          <t>AFLT3.SA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.173</v>
+        <v>1.32</v>
       </c>
       <c r="D2" t="n">
-        <v>4.398</v>
+        <v>5.669</v>
       </c>
       <c r="E2" t="n">
-        <v>5.984</v>
+        <v>4.394</v>
       </c>
       <c r="F2" t="n">
-        <v>0.057</v>
+        <v>0.063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -504,23 +504,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TRPL3.SA</t>
+          <t>CBEE3.SA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.703</v>
+        <v>0.507</v>
       </c>
       <c r="D3" t="n">
-        <v>2.605</v>
+        <v>0.832</v>
       </c>
       <c r="E3" t="n">
-        <v>3.443</v>
+        <v>0.701</v>
       </c>
       <c r="F3" t="n">
-        <v>0.019</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.048</v>
+        <v>0.014</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -532,25 +532,193 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>CEBR3.SA</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.789</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CMIG3.SA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2.166</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.838</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CMIG4.SA</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>COCE5.SA</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3.413</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>REDE3.SA</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.173</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.398</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5.984</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRPL3.SA</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.605</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>TRPL4.SA</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C10" t="n">
         <v>3.159</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D10" t="n">
         <v>1.809</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E10" t="n">
         <v>4.168</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F10" t="n">
         <v>0.017</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G10" t="n">
         <v>0.28</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H10" t="n">
         <v>1</v>
       </c>
     </row>
